--- a/docs/PTA2_DDC_40/PTA1_R5_BDDC_31.07.24_output.xlsx
+++ b/docs/PTA2_DDC_40/PTA1_R5_BDDC_31.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,279 +505,331 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731368174.9252732</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731368179.2676957</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731368174.9252732.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731368179.2676957.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>289.41</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>289.58</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.1699999999999591</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731368180.535707</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731368184.444307</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731368180.535707.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731368184.444307.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>290.74</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>288.96</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>1.78000000000003</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.61</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731368191.0780551</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731368194.6314454</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731368191.0780551.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731368194.6314454.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>132.79</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>133.21</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.4200000000000159</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731368200.4226146</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731368202.7219925</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731368200.4226146.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731368202.7219925.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>134.24</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>133.17</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>1.070000000000022</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731368212.0959172</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731368212.0959172.png</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731368212.0959172.png</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>133.35</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>133.35</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -770,383 +837,455 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731368215.0782306</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731368217.6742551</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731368215.0782306.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731368217.6742551.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>6782</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>6783.5</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>1.5</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731368220.2633858</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731368222.2332327</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731368220.2633858.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731368222.2332327.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>6809</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>6775</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>34</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731368223.3851988</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731368229.7275786</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731368223.3851988.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731368229.7275786.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>6756.5</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>6748.5</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-8</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731368230.8117259</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731368230.8117259.png</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731368230.8117259.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>6749</v>
       </c>
-      <c r="J11" t="n">
-        <v>6749</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
+      <c r="L11" t="n">
+        <v>6747.5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731368236.6946602</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731368239.6446118</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731368236.6946602.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731368239.6446118.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>511.1</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>512.45</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>1.350000000000023</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731368241.185086</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731368243.2462432</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731368241.185086.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731368243.2462432.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>514.35</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>513.1</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>1.25</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731368245.9183934</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731368247.3161163</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731368245.9183934.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731368247.3161163.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>515.05</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>513.3</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>1.75</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731368255.553813</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731368260.8004503</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731368255.553813.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731368260.8004503.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>1042.4</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>1042.4</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1154,1561 +1293,1858 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731368261.802109</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731368262.9022255</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731368261.802109.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731368262.9022255.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>1049.6</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>1040.6</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>9</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.86</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731368279.0107043</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731368281.067568</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/CNY1731368279.0107043.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/CNY1731368281.067568.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>11.98</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>11.959</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.0210000000000008</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731368282.5669427</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731368286.4850762</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/CNY1731368282.5669427.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/CNY1731368286.4850762.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>11.939</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>11.901</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-0.03800000000000026</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731368289.0600228</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731368289.0600228.png</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731368289.0600228.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>11.886</v>
       </c>
-      <c r="J19" t="n">
-        <v>11.886</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
+      <c r="L19" t="n">
+        <v>11.859</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0.02699999999999925</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731368294.9472053</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731368299.2174704</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731368294.9472053.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731368299.2174704.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>127.4</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>127.7</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.2999999999999972</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731368299.6305823</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731368304.7936196</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731368299.6305823.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731368304.7936196.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>128.36</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>129.52</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-1.159999999999997</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.8999999999999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731368315.0772903</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731368319.2445295</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731368315.0772903.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731368319.2445295.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>165</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>164.9</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-0.09999999999999432</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731368320.6518772</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731368321.7031322</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731368320.6518772.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731368321.7031322.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>166.48</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>165.12</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>1.359999999999985</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.8200000000000001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731368328.421784</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731368329.1079865</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731368328.421784.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731368329.1079865.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>165.28</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>165.1</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731368331.0371466</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731368331.0371466.png</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731368331.0371466.png</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>165.44</v>
       </c>
-      <c r="J25" t="n">
-        <v>165.44</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
+      <c r="L25" t="n">
+        <v>165.68</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-0.2400000000000091</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731368334.8107576</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731368340.886177</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731368334.8107576.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731368340.886177.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>51.3</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>51.13</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-0.1699999999999946</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.33</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731368345.2436137</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731368351.117711</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731368345.2436137.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731368351.117711.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>50.61</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>50.815</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.2049999999999983</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731368357.27605</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731368360.7078128</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731368357.27605.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731368360.7078128.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>1418.8</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>1421</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>2.200000000000045</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731368365.5615237</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731368370.0549297</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731368365.5615237.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731368370.0549297.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>1413.4</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>1414.6</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>1.199999999999818</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731368371.2725217</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731368371.2725217.png</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731368371.2725217.png</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>1416.8</v>
       </c>
-      <c r="J30" t="n">
-        <v>1416.8</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
+      <c r="L30" t="n">
+        <v>1416.6</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.2000000000000455</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731368371.981623</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731368375.251129</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731368371.981623.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731368375.251129.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>61.3</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>60.89</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.4099999999999966</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.67</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731368378.3532786</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731368379.1296353</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731368378.3532786.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731368379.1296353.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>60.73</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>60.99</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.2600000000000051</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.43</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731368386.159161</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731368388.5856452</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731368386.159161.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731368388.5856452.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>60.55</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>60.74</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.1900000000000048</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731368389.7877586</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731368389.7877586.png</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731368389.7877586.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>60.8</v>
       </c>
-      <c r="J34" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
+      <c r="L34" t="n">
+        <v>60.94</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-0.1400000000000006</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731368396.9787638</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731368398.7801144</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/SELG1731368396.9787638.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/SELG1731368398.7801144.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>57.56</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>58.01</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.4499999999999957</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.7799999999999999</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731368407.5177677</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731368407.5177677.png</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731368407.5177677.png</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>58.26</v>
       </c>
-      <c r="J36" t="n">
-        <v>58.26</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
+      <c r="L36" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-0.5399999999999991</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.9299999999999999</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731368408.8080268</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731368410.909017</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731368408.8080268.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731368410.909017.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>142.48</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>142.06</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.4199999999999875</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731368417.0778008</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731368421.685655</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731368417.0778008.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731368421.685655.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>143.5</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>143.92</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-0.4199999999999875</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.29</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731368436.0330043</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731368444.5004053</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731368436.0330043.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731368444.5004053.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>85.06</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>84.92</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-0.1400000000000006</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731368446.2630637</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731368449.6268244</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731368446.2630637.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731368449.6268244.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>376.74</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>374.1</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>2.639999999999986</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731368452.7266612</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731368454.767481</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731368452.7266612.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731368454.767481.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>371.24</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>374.48</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>3.240000000000009</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.8699999999999999</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731368455.8298054</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731368457.086318</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731368455.8298054.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731368457.086318.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>375.84</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>373.44</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>2.399999999999977</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.64</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731368459.7056973</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1731368459.7056973.png</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1731368459.7056973.png</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>375.27</v>
       </c>
-      <c r="J43" t="n">
-        <v>375.27</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
+      <c r="L43" t="n">
+        <v>376.43</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-1.160000000000025</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.31</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731368465.9917626</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731368466.998123</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/FEES1731368465.9917626.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/FEES1731368466.998123.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>0.09818</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>0.0975</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.00068</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731368467.5171115</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731368469.7093759</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/FEES1731368467.5171115.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/FEES1731368469.7093759.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>0.09818</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>0.09792000000000001</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.0002599999999999963</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731368472.6456873</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731368482.8690894</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/FEES1731368472.6456873.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/FEES1731368482.8690894.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>0.099</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>0.09998000000000001</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-0.0009800000000000086</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.9900000000000001</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731368483.621019</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731368486.555304</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731368483.621019.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731368486.555304.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>34.76</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>34.655</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.1049999999999969</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731368501.256802</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>./test_images/RUAL1731368501.256802.png</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
+          <t>./test_images/RUAL1731368501.256802.png</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>34.6</v>
       </c>
-      <c r="J48" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
+      <c r="L48" t="n">
+        <v>34.69</v>
+      </c>
+      <c r="M48" t="n">
+        <v>-0.08999999999999631</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.26</v>
       </c>
     </row>
   </sheetData>
@@ -2722,7 +3158,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2751,6 +3187,16 @@
           <t>part</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -2759,13 +3205,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.279999999999973</v>
+        <v>7.119999999999948</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>2.069999999999993</v>
+        <v>1.779999999999987</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.48</v>
       </c>
     </row>
     <row r="3">
@@ -2775,13 +3227,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.5</v>
+        <v>29</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>6.875</v>
+        <v>7.25</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="4">
@@ -2791,13 +3249,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8600000000000065</v>
+        <v>0.720000000000006</v>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2150000000000016</v>
+        <v>0.1800000000000015</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="5">
@@ -2807,13 +3271,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.439999999999998</v>
+        <v>1.199999999999989</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3599999999999994</v>
+        <v>0.2999999999999972</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="6">
@@ -2823,13 +3293,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.399999999999864</v>
+        <v>3.599999999999909</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>1.133333333333288</v>
+        <v>1.19999999999997</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="7">
@@ -2839,13 +3315,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.01699999999999946</v>
+        <v>-0.04399999999999871</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.005666666666666487</v>
+        <v>-0.01466666666666624</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="8">
@@ -2863,6 +3345,12 @@
       <c r="D8" t="n">
         <v>-1.333333333333742e-05</v>
       </c>
+      <c r="E8" t="n">
+        <v>-0.04000000000000015</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.01</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2879,6 +3367,12 @@
       <c r="D9" t="n">
         <v>0.2166666666666686</v>
       </c>
+      <c r="E9" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2895,6 +3389,12 @@
       <c r="D10" t="n">
         <v>1.450000000000008</v>
       </c>
+      <c r="E10" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2911,6 +3411,12 @@
       <c r="D11" t="n">
         <v>0.01750000000000185</v>
       </c>
+      <c r="E11" t="n">
+        <v>0.08000000000000002</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -2927,6 +3433,12 @@
       <c r="D12" t="n">
         <v>0</v>
       </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -2943,6 +3455,12 @@
       <c r="D13" t="n">
         <v>-0.4299999999999997</v>
       </c>
+      <c r="E13" t="n">
+        <v>-0.6599999999999999</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.33</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -2959,6 +3477,12 @@
       <c r="D14" t="n">
         <v>4.5</v>
       </c>
+      <c r="E14" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -2967,13 +3491,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1049999999999969</v>
+        <v>0.01500000000000057</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>0.05249999999999844</v>
+        <v>0.007500000000000284</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.03999999999999998</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="16">
@@ -2991,6 +3521,12 @@
       <c r="D16" t="n">
         <v>0.9749999999999943</v>
       </c>
+      <c r="E16" t="n">
+        <v>0.6699999999999999</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -2999,13 +3535,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4499999999999957</v>
+        <v>-0.09000000000000341</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2249999999999979</v>
+        <v>-0.04500000000000171</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="18">
@@ -3023,6 +3565,12 @@
       <c r="D18" t="n">
         <v>-0.1400000000000006</v>
       </c>
+      <c r="E18" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.16</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -3037,6 +3585,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
